--- a/Project Iterations Documantation.xlsx
+++ b/Project Iterations Documantation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f628a26c7e4e8f2/Desktop/Data Mining Project/NY RealState Appartments Classifications Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LasTa\Desktop\DataSci\NY_Realstate_Classifications_Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="528" documentId="8_{603D1FE3-104E-4F32-BEFC-D72ED8966787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7DD152A-4208-4BC7-86B6-1EF50F503E70}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBCDD60-051A-47E5-B51C-A10A8A135992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4FCB8179-70DD-465F-B4B0-E72CA2138CA0}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4FCB8179-70DD-465F-B4B0-E72CA2138CA0}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="104">
   <si>
     <t>MinMax</t>
   </si>
@@ -363,6 +363,162 @@
 [ 4 18 5 0]
 [ 335 705 461 6]
 [ 9 51 22 0]]</t>
+  </si>
+  <si>
+    <t>number_of_reviews avaliability_2020</t>
+  </si>
+  <si>
+    <t>price minimum_nights</t>
+  </si>
+  <si>
+    <t>days_occupied_in_2019 reviews_per_month</t>
+  </si>
+  <si>
+    <t>[[1636 0 271 0]
+ [ 15 0 12 0]
+ [ 265 0 1239 3]
+ [ 9 0 66 7]]</t>
+  </si>
+  <si>
+    <t>[[1652 1 254 0]
+ [ 12 8 5 2]
+ [ 274 0 1230 3]
+ [ 7 0 62 13]]</t>
+  </si>
+  <si>
+    <t>[[1623 1 283 0]
+ [ 15 6 4 2]
+ [ 297 3 1200 7]
+ [ 9 3 59 11]]</t>
+  </si>
+  <si>
+    <t>[[ 598 0 1309 0]
+ [ 9 0 18 0]
+ [ 87 0 1420 0]
+ [ 7 0 75 0]]</t>
+  </si>
+  <si>
+    <t>[[783 428 172 524]
+ [ 3 14 2 8]
+ [562 367 228 350]
+ [ 36 35 5 6]]</t>
+  </si>
+  <si>
+    <t>reviews_per_month avaliability_2020</t>
+  </si>
+  <si>
+    <t>[[1646 0 261 0]
+ [ 23 0 4 0]
+ [ 305 0 1202 0]
+ [ 8 0 74 0]]</t>
+  </si>
+  <si>
+    <t>[[1632 2 273 0]
+ [ 16 4 7 0]
+ [ 271 0 1234 2]
+ [ 7 0 64 11]]</t>
+  </si>
+  <si>
+    <t>[[1667 0 240 0]
+ [ 14 5 7 1]
+ [ 278 0 1227 2]
+ [ 7 0 61 14]]</t>
+  </si>
+  <si>
+    <t>[[1619 2 286 0]
+ [ 19 3 5 0]
+ [ 323 3 1178 3]
+ [ 8 2 60 12]]</t>
+  </si>
+  <si>
+    <t>[[ 633 0 1274 0]
+ [ 9 0 18 0]
+ [ 100 0 1407 0]
+ [ 14 0 68 0]]</t>
+  </si>
+  <si>
+    <t>[[313 978 1 615]
+ [ 4 5 0 18]
+ [215 762 0 530]
+ [ 7 30 0 45]]</t>
+  </si>
+  <si>
+    <t>[[1483 0 424 0]
+ [ 21 0 6 0]
+ [ 205 0 1302 0]
+ [ 5 0 77 0]]</t>
+  </si>
+  <si>
+    <t>[[1487 0 420 0]
+ [ 17 3 7 0]
+ [ 205 0 1302 0]
+ [ 5 0 77 0]]</t>
+  </si>
+  <si>
+    <t>[[1508 1 397 1]
+ [ 16 4 7 0]
+ [ 257 0 1245 5]
+ [ 6 0 73 3]]</t>
+  </si>
+  <si>
+    <t>[[1505 0 401 1]
+ [ 18 1 8 0]
+ [ 351 1 1153 2]
+ [ 9 1 71 1]]</t>
+  </si>
+  <si>
+    <t>[[1475 0 432 0]
+ [ 21 0 6 0]
+ [ 207 0 1300 0]
+ [ 5 0 77 0]]</t>
+  </si>
+  <si>
+    <t>[[164 854 638 251]
+ [  0  17   5   5]
+ [315 167  44 981]
+ [ 17   4   1  60]]</t>
+  </si>
+  <si>
+    <t>avaliability_2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">price  days_occupied_in_2019 reviews_per_month </t>
+  </si>
+  <si>
+    <t>[[1542 0 365 0]
+ [ 22 0 5 0]
+ [ 219 0 1288 0]
+ [ 6 0 76 0]]</t>
+  </si>
+  <si>
+    <t>[[1538 0 369 0]
+ [ 20 0 7 0]
+ [ 214 0 1293 0]
+ [ 6 0 76 0]]</t>
+  </si>
+  <si>
+    <t>[[1603 1 298 5]
+ [ 17 4 6 0]
+ [ 318 1 1173 15]
+ [ 7 0 65 10]]</t>
+  </si>
+  <si>
+    <t>[[1572 1 334 0]
+ [ 20 2 5 0]
+ [ 349 0 1155 3]
+ [ 5 0 72 5]]</t>
+  </si>
+  <si>
+    <t>[[1097 0 810 0]
+ [ 11 0 16 0]
+ [ 80 0 1427 0]
+ [ 4 0 78 0]]</t>
+  </si>
+  <si>
+    <t>[[752 279 650 226]
+ [  4   4  18   1]
+ [755  17 728   7]
+ [ 29   2  50   1]]</t>
   </si>
 </sst>
 </file>
@@ -373,7 +529,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -385,7 +541,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -404,7 +560,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -435,6 +591,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -457,19 +637,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -513,6 +687,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,56 +731,6 @@
     <dxf>
       <font>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -631,6 +776,56 @@
     <dxf>
       <font>
         <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -759,10 +954,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{32F48681-6E14-4879-B8F4-0FDA45E74A5E}" name="טבלה1" displayName="טבלה1" ref="A1:P49" totalsRowShown="0" dataDxfId="16">
   <autoFilter ref="A1:P49" xr:uid="{32F48681-6E14-4879-B8F4-0FDA45E74A5E}"/>
@@ -775,12 +966,12 @@
     <tableColumn id="6" xr3:uid="{40F3C673-B5FC-4F76-8760-A8EB4025AD73}" name="bin boundaries" dataDxfId="10"/>
     <tableColumn id="7" xr3:uid="{569E38EC-866A-409A-9742-8CCD8678C740}" name="bin means" dataDxfId="9"/>
     <tableColumn id="16" xr3:uid="{E015D4A3-C7C5-4B31-A17E-3B2AA5532FC9}" name="num bins" dataDxfId="8"/>
-    <tableColumn id="15" xr3:uid="{0C7B0990-7301-4306-9257-3E2627DD5D34}" name="Split random" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{206A8FAD-46E2-4784-BA82-A45233DD499C}" name="Classification Type" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{F6E18385-8E3C-4B0C-BC08-08258C7AB9F8}" name="Classification details" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{23AF684B-CD9B-4041-9A03-67EAE8B1A246}" name="Confusion Matrix" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{8011CC75-4DBF-49E9-8222-5CAF45F3A703}" name="Precision avg" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{1900C161-FEB2-4CAD-B959-8DEFD340D048}" name="Recall avg" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{0C7B0990-7301-4306-9257-3E2627DD5D34}" name="Split random" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{206A8FAD-46E2-4784-BA82-A45233DD499C}" name="Classification Type" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{F6E18385-8E3C-4B0C-BC08-08258C7AB9F8}" name="Classification details" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{23AF684B-CD9B-4041-9A03-67EAE8B1A246}" name="Confusion Matrix" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{8011CC75-4DBF-49E9-8222-5CAF45F3A703}" name="Precision avg" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{1900C161-FEB2-4CAD-B959-8DEFD340D048}" name="Recall avg" dataDxfId="2"/>
     <tableColumn id="13" xr3:uid="{23E5A7E1-DC50-4692-9F23-C71BF776057D}" name="F-Measure avg" dataDxfId="1"/>
     <tableColumn id="14" xr3:uid="{C7CABD94-836A-40AB-A28F-2341F9E90203}" name="Accuracy" dataDxfId="0"/>
   </tableColumns>
@@ -789,7 +980,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1087,27 +1278,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D41D7FE-4636-4734-898A-BE9766335B5E}">
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="B42" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.19921875" customWidth="1"/>
-    <col min="3" max="3" width="19.09765625" customWidth="1"/>
-    <col min="4" max="4" width="16.296875" customWidth="1"/>
-    <col min="5" max="5" width="19.19921875" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="9" width="13.19921875" customWidth="1"/>
-    <col min="10" max="10" width="19.69921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.09765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.5" customWidth="1"/>
-    <col min="13" max="13" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
+    <col min="8" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -1161,1692 +1352,2228 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>2</v>
       </c>
-      <c r="I2" s="3">
-        <v>42</v>
-      </c>
-      <c r="J2" s="15" t="s">
+      <c r="I2" s="2">
+        <v>42</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="2">
         <v>0.9</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="2">
         <v>0.41</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="2">
         <v>0.41</v>
       </c>
-      <c r="P2" s="17">
+      <c r="P2" s="15">
         <v>0.8044</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>2</v>
       </c>
-      <c r="I3" s="3">
-        <v>42</v>
-      </c>
-      <c r="J3" s="15" t="s">
+      <c r="I3" s="2">
+        <v>42</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="2">
         <v>0.9</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="2">
         <v>0.44</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="2">
         <v>0.45</v>
       </c>
-      <c r="P3" s="17">
+      <c r="P3" s="15">
         <v>0.8075</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>2</v>
       </c>
-      <c r="I4" s="3">
-        <v>42</v>
-      </c>
-      <c r="J4" s="15" t="s">
+      <c r="I4" s="2">
+        <v>42</v>
+      </c>
+      <c r="J4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3" t="s">
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="2">
         <v>0.75</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="2">
         <v>0.49</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="2">
         <v>0.53</v>
       </c>
-      <c r="P4" s="17">
+      <c r="P4" s="15">
         <v>0.79810000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>2</v>
       </c>
-      <c r="I5" s="3">
-        <v>42</v>
-      </c>
-      <c r="J5" s="15" t="s">
+      <c r="I5" s="2">
+        <v>42</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="2">
         <v>0.77</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="2">
         <v>0.41</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="2">
         <v>0.43</v>
       </c>
-      <c r="P5" s="17">
+      <c r="P5" s="15">
         <v>0.75160000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>2</v>
       </c>
-      <c r="I6" s="3">
-        <v>42</v>
-      </c>
-      <c r="J6" s="15" t="s">
+      <c r="I6" s="2">
+        <v>42</v>
+      </c>
+      <c r="J6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3" t="s">
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>0.84</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="2">
         <v>0.26</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="2">
         <v>0.21</v>
       </c>
-      <c r="P6" s="17">
+      <c r="P6" s="15">
         <v>0.56420000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="4">
         <v>2</v>
       </c>
-      <c r="I7" s="6">
-        <v>42</v>
-      </c>
-      <c r="J7" s="16" t="s">
+      <c r="I7" s="4">
+        <v>42</v>
+      </c>
+      <c r="J7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="4">
         <v>0.21</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="4">
         <v>0.19</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="4">
         <v>0.2</v>
       </c>
-      <c r="P7" s="18">
+      <c r="P7" s="16">
         <v>0.37290000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>5</v>
       </c>
-      <c r="I8" s="3">
-        <v>42</v>
-      </c>
-      <c r="J8" s="15" t="s">
+      <c r="I8" s="2">
+        <v>42</v>
+      </c>
+      <c r="J8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="2">
         <v>0.9</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="2">
         <v>0.42</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="2">
         <v>0.41</v>
       </c>
-      <c r="P8" s="17">
+      <c r="P8" s="15">
         <v>0.80840000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>5</v>
       </c>
-      <c r="I9" s="3">
-        <v>42</v>
-      </c>
-      <c r="J9" s="15" t="s">
+      <c r="I9" s="2">
+        <v>42</v>
+      </c>
+      <c r="J9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="2">
         <v>0.9</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="2">
         <v>0.44</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="2">
         <v>0.45</v>
       </c>
-      <c r="P9" s="17">
+      <c r="P9" s="15">
         <v>0.81289999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>5</v>
       </c>
-      <c r="I10" s="3">
-        <v>42</v>
-      </c>
-      <c r="J10" s="15" t="s">
+      <c r="I10" s="2">
+        <v>42</v>
+      </c>
+      <c r="J10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3" t="s">
+      <c r="K10" s="2"/>
+      <c r="L10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="2">
         <v>0.83</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="2">
         <v>0.52</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="2">
         <v>0.57999999999999996</v>
       </c>
-      <c r="P10" s="17">
+      <c r="P10" s="15">
         <v>0.82310000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>5</v>
       </c>
-      <c r="I11" s="3">
-        <v>42</v>
-      </c>
-      <c r="J11" s="15" t="s">
+      <c r="I11" s="2">
+        <v>42</v>
+      </c>
+      <c r="J11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="2">
         <v>0.75</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="2">
         <v>0.49</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="2">
         <v>0.54</v>
       </c>
-      <c r="P11" s="17">
+      <c r="P11" s="15">
         <v>0.79079999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>5</v>
       </c>
-      <c r="I12" s="3">
-        <v>42</v>
-      </c>
-      <c r="J12" s="15" t="s">
+      <c r="I12" s="2">
+        <v>42</v>
+      </c>
+      <c r="J12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3" t="s">
+      <c r="K12" s="2"/>
+      <c r="L12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="2">
         <v>0.84</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="2">
         <v>0.32</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="2">
         <v>0.28999999999999998</v>
       </c>
-      <c r="P12" s="17">
+      <c r="P12" s="15">
         <v>0.58409999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="54.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6" t="s">
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="4">
         <v>5</v>
       </c>
-      <c r="I13" s="6">
-        <v>42</v>
-      </c>
-      <c r="J13" s="16" t="s">
+      <c r="I13" s="4">
+        <v>42</v>
+      </c>
+      <c r="J13" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="4">
         <v>0.26</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="4">
         <v>0.22</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="4">
         <v>0.18</v>
       </c>
-      <c r="P13" s="18">
+      <c r="P13" s="16">
         <v>0.24660000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2">
         <v>6</v>
       </c>
-      <c r="I14" s="3">
-        <v>42</v>
-      </c>
-      <c r="J14" s="15" t="s">
+      <c r="I14" s="2">
+        <v>42</v>
+      </c>
+      <c r="J14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="2">
         <v>0.9</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="2">
         <v>0.42</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="2">
         <v>0.41</v>
       </c>
-      <c r="P14" s="17">
+      <c r="P14" s="15">
         <v>0.80840000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2">
         <v>6</v>
       </c>
-      <c r="I15" s="3">
-        <v>42</v>
-      </c>
-      <c r="J15" s="15" t="s">
+      <c r="I15" s="2">
+        <v>42</v>
+      </c>
+      <c r="J15" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="2">
         <v>0.87</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="2">
         <v>0.45</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="2">
         <v>0.47</v>
       </c>
-      <c r="P15" s="17">
+      <c r="P15" s="15">
         <v>0.81830000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3">
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2">
         <v>6</v>
       </c>
-      <c r="I16" s="3">
-        <v>42</v>
-      </c>
-      <c r="J16" s="15" t="s">
+      <c r="I16" s="2">
+        <v>42</v>
+      </c>
+      <c r="J16" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3" t="s">
+      <c r="K16" s="2"/>
+      <c r="L16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="2">
         <v>0.78</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16" s="2">
         <v>0.49</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16" s="2">
         <v>0.53</v>
       </c>
-      <c r="P16" s="17">
+      <c r="P16" s="15">
         <v>0.82310000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3">
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2">
         <v>6</v>
       </c>
-      <c r="I17" s="3">
-        <v>42</v>
-      </c>
-      <c r="J17" s="15" t="s">
+      <c r="I17" s="2">
+        <v>42</v>
+      </c>
+      <c r="J17" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="2">
         <v>0.32</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="2">
         <v>0.33</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="2">
         <v>0.33</v>
       </c>
-      <c r="P17" s="17">
+      <c r="P17" s="15">
         <v>0.64570000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3" t="s">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3">
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2">
         <v>6</v>
       </c>
-      <c r="I18" s="3">
-        <v>42</v>
-      </c>
-      <c r="J18" s="15" t="s">
+      <c r="I18" s="2">
+        <v>42</v>
+      </c>
+      <c r="J18" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3" t="s">
+      <c r="K18" s="2"/>
+      <c r="L18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="2">
         <v>0.84</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="2">
         <v>0.32</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="2">
         <v>0.28999999999999998</v>
       </c>
-      <c r="P18" s="17">
+      <c r="P18" s="15">
         <v>0.59399999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
+      <c r="A19" s="10">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="B19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6" t="s">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4">
         <v>6</v>
       </c>
-      <c r="I19" s="6">
-        <v>42</v>
-      </c>
-      <c r="J19" s="16" t="s">
+      <c r="I19" s="4">
+        <v>42</v>
+      </c>
+      <c r="J19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="L19" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="4">
         <v>0.25</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="4">
         <v>0.17</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19" s="4">
         <v>0.17</v>
       </c>
-      <c r="P19" s="18">
+      <c r="P19" s="16">
         <v>0.23580000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3">
+      <c r="G20" s="2"/>
+      <c r="H20" s="2">
         <v>7</v>
       </c>
-      <c r="I20" s="3">
-        <v>42</v>
-      </c>
-      <c r="J20" s="15" t="s">
+      <c r="I20" s="2">
+        <v>42</v>
+      </c>
+      <c r="J20" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="2">
         <v>0.9</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="2">
         <v>0.42</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="2">
         <v>0.41</v>
       </c>
-      <c r="P20" s="17">
+      <c r="P20" s="15">
         <v>0.80840000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
+      <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2">
         <v>7</v>
       </c>
-      <c r="I21" s="3">
-        <v>42</v>
-      </c>
-      <c r="J21" s="15" t="s">
+      <c r="I21" s="2">
+        <v>42</v>
+      </c>
+      <c r="J21" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="2">
         <v>0.87</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="2">
         <v>0.46</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="2">
         <v>0.48</v>
       </c>
-      <c r="P21" s="17">
+      <c r="P21" s="15">
         <v>0.81889999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
+      <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3">
+      <c r="G22" s="2"/>
+      <c r="H22" s="2">
         <v>7</v>
       </c>
-      <c r="I22" s="3">
-        <v>42</v>
-      </c>
-      <c r="J22" s="15" t="s">
+      <c r="I22" s="2">
+        <v>42</v>
+      </c>
+      <c r="J22" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3" t="s">
+      <c r="K22" s="2"/>
+      <c r="L22" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="2">
         <v>0.83</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="2">
         <v>0.53</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="2">
         <v>0.59</v>
       </c>
-      <c r="P22" s="17">
+      <c r="P22" s="15">
         <v>0.82479999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
+      <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3">
+      <c r="G23" s="2"/>
+      <c r="H23" s="2">
         <v>7</v>
       </c>
-      <c r="I23" s="3">
-        <v>42</v>
-      </c>
-      <c r="J23" s="15" t="s">
+      <c r="I23" s="2">
+        <v>42</v>
+      </c>
+      <c r="J23" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L23" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="2">
         <v>0.69</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="2">
         <v>0.44</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="2">
         <v>0.46</v>
       </c>
-      <c r="P23" s="17">
+      <c r="P23" s="15">
         <v>0.78280000000000005</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
+      <c r="A24" s="11">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3">
+      <c r="G24" s="2"/>
+      <c r="H24" s="2">
         <v>7</v>
       </c>
-      <c r="I24" s="3">
-        <v>42</v>
-      </c>
-      <c r="J24" s="15" t="s">
+      <c r="I24" s="2">
+        <v>42</v>
+      </c>
+      <c r="J24" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3" t="s">
+      <c r="K24" s="2"/>
+      <c r="L24" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="2">
         <v>0.84</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="2">
         <v>0.32</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="2">
         <v>0.28999999999999998</v>
       </c>
-      <c r="P24" s="17">
+      <c r="P24" s="15">
         <v>0.58520000000000005</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14">
+      <c r="A25" s="12">
         <v>24</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="6" t="s">
+      <c r="B25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6">
+      <c r="G25" s="4"/>
+      <c r="H25" s="4">
         <v>7</v>
       </c>
-      <c r="I25" s="6">
-        <v>42</v>
-      </c>
-      <c r="J25" s="16" t="s">
+      <c r="I25" s="4">
+        <v>42</v>
+      </c>
+      <c r="J25" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="K25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="L25" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="4">
         <v>0.24</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N25" s="4">
         <v>0.28999999999999998</v>
       </c>
-      <c r="O25" s="6">
+      <c r="O25" s="4">
         <v>0.16</v>
       </c>
-      <c r="P25" s="18">
+      <c r="P25" s="16">
         <v>0.23669999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="26" spans="1:16" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="17">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="15" t="s">
+      <c r="B26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" s="2">
+        <v>4</v>
+      </c>
+      <c r="I26" s="4">
+        <v>42</v>
+      </c>
+      <c r="J26" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="17"/>
-    </row>
-    <row r="27" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="K26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="P26" s="15">
+        <v>0.80840000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="17">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="15" t="s">
+      <c r="B27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H27" s="2">
+        <v>4</v>
+      </c>
+      <c r="I27" s="4">
+        <v>42</v>
+      </c>
+      <c r="J27" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="17"/>
-    </row>
-    <row r="28" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="K27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="P27" s="15">
+        <v>0.81799999999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="17">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="15" t="s">
+      <c r="B28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="2">
+        <v>4</v>
+      </c>
+      <c r="I28" s="4">
+        <v>42</v>
+      </c>
+      <c r="J28" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="17"/>
-    </row>
-    <row r="29" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="K28" s="2"/>
+      <c r="L28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="P28" s="15">
+        <v>0.82399999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="17">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="15" t="s">
+      <c r="B29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" s="2">
+        <v>4</v>
+      </c>
+      <c r="I29" s="4">
+        <v>42</v>
+      </c>
+      <c r="J29" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="17"/>
-    </row>
-    <row r="30" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="K29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="P29" s="15">
+        <v>0.80610000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="17">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="15" t="s">
+      <c r="B30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" s="2">
+        <v>4</v>
+      </c>
+      <c r="I30" s="4">
+        <v>42</v>
+      </c>
+      <c r="J30" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="17"/>
-    </row>
-    <row r="31" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
+      <c r="K30" s="2"/>
+      <c r="L30" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="P30" s="15">
+        <v>0.57279999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="18">
         <v>30</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="16" t="s">
+      <c r="B31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H31" s="4">
+        <v>4</v>
+      </c>
+      <c r="I31" s="4">
+        <v>42</v>
+      </c>
+      <c r="J31" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="18"/>
-    </row>
-    <row r="32" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="K31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M31" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N31" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O31" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="P31" s="16">
+        <v>0.29260000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="19">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="15" t="s">
+      <c r="B32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="2">
+        <v>2</v>
+      </c>
+      <c r="I32" s="4">
+        <v>42</v>
+      </c>
+      <c r="J32" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="17"/>
-    </row>
-    <row r="33" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="K32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N32" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="P32" s="15">
+        <v>0.80840000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="19">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="15" t="s">
+      <c r="B33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="2">
+        <v>2</v>
+      </c>
+      <c r="I33" s="4">
+        <v>42</v>
+      </c>
+      <c r="J33" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="17"/>
-    </row>
-    <row r="34" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="K33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="15" t="s">
+      <c r="L33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="N33" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="P33" s="15">
+        <v>0.81769999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="19">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" s="2">
+        <v>2</v>
+      </c>
+      <c r="I34" s="4">
+        <v>42</v>
+      </c>
+      <c r="J34" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="17"/>
-    </row>
-    <row r="35" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="K34" s="2"/>
+      <c r="L34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="N34" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="P34" s="15">
+        <v>0.82679999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="19">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="15" t="s">
+      <c r="B35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" s="2">
+        <v>2</v>
+      </c>
+      <c r="I35" s="4">
+        <v>42</v>
+      </c>
+      <c r="J35" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="17"/>
-    </row>
-    <row r="36" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="K35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="N35" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="P35" s="15">
+        <v>0.79810000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="19">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="15" t="s">
+      <c r="B36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" s="2">
+        <v>2</v>
+      </c>
+      <c r="I36" s="4">
+        <v>42</v>
+      </c>
+      <c r="J36" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="17"/>
-    </row>
-    <row r="37" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
+      <c r="K36" s="2"/>
+      <c r="L36" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="N36" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="P36" s="15">
+        <v>0.57899999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="20">
         <v>36</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="16" t="s">
+      <c r="B37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" s="2">
+        <v>2</v>
+      </c>
+      <c r="I37" s="4">
+        <v>42</v>
+      </c>
+      <c r="J37" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="18"/>
-    </row>
-    <row r="38" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="K37" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M37" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="N37" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="O37" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="P37" s="16">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="21">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="15" t="s">
+      <c r="B38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H38" s="2">
+        <v>2</v>
+      </c>
+      <c r="I38" s="4">
+        <v>42</v>
+      </c>
+      <c r="J38" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="17"/>
-    </row>
-    <row r="39" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="K38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M38" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N38" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="O38" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="P38" s="15">
+        <v>0.79049999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="21">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="15" t="s">
+      <c r="B39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H39" s="2">
+        <v>2</v>
+      </c>
+      <c r="I39" s="4">
+        <v>42</v>
+      </c>
+      <c r="J39" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="17"/>
-    </row>
-    <row r="40" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+      <c r="K39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N39" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="O39" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="P39" s="15">
+        <v>0.79249999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="21">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="15" t="s">
+      <c r="B40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H40" s="2">
+        <v>2</v>
+      </c>
+      <c r="I40" s="4">
+        <v>42</v>
+      </c>
+      <c r="J40" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="17"/>
-    </row>
-    <row r="41" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="K40" s="2"/>
+      <c r="L40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="N40" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="O40" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="P40" s="15">
+        <v>0.78339999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="21">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="15" t="s">
+      <c r="B41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H41" s="2">
+        <v>2</v>
+      </c>
+      <c r="I41" s="4">
+        <v>42</v>
+      </c>
+      <c r="J41" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="17"/>
-    </row>
-    <row r="42" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="K41" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="N41" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="O41" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="P41" s="15">
+        <v>0.755</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="21">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="15" t="s">
+      <c r="B42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H42" s="2">
+        <v>2</v>
+      </c>
+      <c r="I42" s="4">
+        <v>42</v>
+      </c>
+      <c r="J42" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="17"/>
-    </row>
-    <row r="43" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
-        <v>42</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="16" t="s">
+      <c r="K42" s="2"/>
+      <c r="L42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M42" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="N42" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="O42" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="P42" s="15">
+        <v>0.78759999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="22">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="4">
+        <v>2</v>
+      </c>
+      <c r="I43" s="4">
+        <v>42</v>
+      </c>
+      <c r="J43" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="18"/>
-    </row>
-    <row r="44" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+      <c r="K43" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="M43" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="N43" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="O43" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P43" s="16">
+        <v>8.0799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="23">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="15" t="s">
+      <c r="B44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H44" s="2">
+        <v>6</v>
+      </c>
+      <c r="I44" s="4">
+        <v>42</v>
+      </c>
+      <c r="J44" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="17"/>
-    </row>
-    <row r="45" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+      <c r="K44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M44" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N44" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="O44" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="P44" s="15">
+        <v>0.80320000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="23">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="15" t="s">
+      <c r="B45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H45" s="2">
+        <v>6</v>
+      </c>
+      <c r="I45" s="4">
+        <v>42</v>
+      </c>
+      <c r="J45" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="17"/>
-    </row>
-    <row r="46" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+      <c r="K45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M45" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N45" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="O45" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="P45" s="15">
+        <v>0.80349999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="23">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="15" t="s">
+      <c r="B46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H46" s="2">
+        <v>6</v>
+      </c>
+      <c r="I46" s="4">
+        <v>42</v>
+      </c>
+      <c r="J46" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="17"/>
-    </row>
-    <row r="47" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+      <c r="K46" s="2"/>
+      <c r="L46" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M46" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="N46" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="O46" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="P46" s="15">
+        <v>0.79190000000000005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="23">
         <v>46</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="15" t="s">
+      <c r="B47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H47" s="2">
+        <v>6</v>
+      </c>
+      <c r="I47" s="4">
+        <v>42</v>
+      </c>
+      <c r="J47" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="17"/>
-    </row>
-    <row r="48" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+      <c r="K47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M47" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="N47" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="O47" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="P47" s="15">
+        <v>0.77600000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="23">
         <v>47</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="15" t="s">
+      <c r="B48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H48" s="2">
+        <v>6</v>
+      </c>
+      <c r="I48" s="4">
+        <v>42</v>
+      </c>
+      <c r="J48" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="17"/>
-    </row>
-    <row r="49" spans="1:16" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+      <c r="K48" s="2"/>
+      <c r="L48" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M48" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="N48" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="O48" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="P48" s="15">
+        <v>0.71640000000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="23">
         <v>48</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="15" t="s">
+      <c r="B49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H49" s="2">
+        <v>6</v>
+      </c>
+      <c r="I49" s="4">
+        <v>42</v>
+      </c>
+      <c r="J49" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="17"/>
+      <c r="K49" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M49" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="N49" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="O49" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="P49" s="15">
+        <v>0.42151</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
